--- a/data/Correlations.xlsx
+++ b/data/Correlations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dusky\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dusky\Documents\R\unitedway\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88BB49F-AAC2-4767-AEE9-1D3D8F392B67}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D136CD-B717-4802-BCF6-270FED51D4D6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{D2060BE0-B212-4D0B-A449-F69D49F30BF4}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,8 +99,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +116,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -126,15 +156,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,7 +487,7 @@
   <dimension ref="A3:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,101 +548,101 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>0.78106699999999996</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.80400870000000002</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.80171619999999999</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0.83502940000000003</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0.75413249999999998</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>0.67112090000000002</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>0.46617925999999998</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>0.41001307999999997</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>-0.74895639999999997</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>-0.58469150000000003</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>-0.53683539999999996</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>-0.54673590000000005</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>-0.59615070000000003</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2">
         <v>0.78106699999999996</v>
       </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
         <v>0.82267729999999994</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0.59363200000000005</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0.69908599999999999</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.86832240000000005</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0.48067919999999997</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>0.23710729999999999</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>0.43064833000000002</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>-0.64575439999999995</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>-0.49205890000000002</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>-0.55158549999999995</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>-0.43570039999999999</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>-0.58388099999999998</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2">
@@ -616,45 +651,45 @@
       <c r="C6" s="2">
         <v>0.82267729999999994</v>
       </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
         <v>0.66313029999999995</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.677234</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.80565109999999995</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>0.49172840000000001</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>0.23096131</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>0.54718699000000004</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>-0.65482989999999996</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>-0.47584890000000002</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>-0.49488599999999999</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>-0.44849519999999998</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>-0.58139770000000002</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2">
@@ -666,42 +701,42 @@
       <c r="D7" s="2">
         <v>0.66313029999999995</v>
       </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
         <v>0.70853169999999999</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.56454870000000001</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0.61180840000000003</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>0.48202292000000002</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>0.38748951999999998</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>-0.66847639999999997</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>-0.56473660000000003</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>-0.4527408</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>-0.55731470000000005</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>-0.5525253</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2">
@@ -716,39 +751,39 @@
       <c r="E8" s="2">
         <v>0.70853169999999999</v>
       </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
         <v>0.64008529999999997</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.6054832</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>0.44396407999999998</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>0.36998383000000001</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>-0.67641470000000004</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>-0.51183690000000004</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>-0.49663950000000001</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>-0.49850129999999998</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>-0.53336240000000001</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2">
@@ -766,36 +801,36 @@
       <c r="F9" s="2">
         <v>0.64008529999999997</v>
       </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
         <v>0.45231850000000001</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>0.20177375</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>0.4111879</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>-0.61309590000000003</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>-0.45262639999999998</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>-0.55676230000000004</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>-0.41094239999999999</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>-0.53281840000000003</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2">
@@ -816,33 +851,33 @@
       <c r="G10" s="2">
         <v>0.45231850000000001</v>
       </c>
-      <c r="H10" s="5">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
         <v>0.55806507999999999</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>0.18501661</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>-0.66</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>-0.57483249999999997</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>-0.40868900000000002</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>-0.56457559999999996</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>-0.50624360000000002</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2">
@@ -866,30 +901,30 @@
       <c r="H11" s="2">
         <v>0.55806509999999998</v>
       </c>
-      <c r="I11" s="5">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
         <v>8.2783969999999998E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>-0.53874</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>-0.54379040000000001</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>-0.33417059999999998</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>-0.52140900000000001</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>-0.42461589999999999</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2">
@@ -919,24 +954,24 @@
       <c r="J12" s="2">
         <v>1</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>-0.30373299999999998</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>-0.21914349999999999</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>-0.2485533</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>-0.2494227</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>-0.33804260000000003</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2">
@@ -969,21 +1004,21 @@
       <c r="K13" s="2">
         <v>1</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>0.82169360000000002</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>0.69227749999999999</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>0.76155459999999997</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <v>0.72763900000000004</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2">
@@ -1019,18 +1054,18 @@
       <c r="L14" s="2">
         <v>1</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>0.71607350000000003</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>0.83526140000000004</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <v>0.76127120000000004</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2">
@@ -1069,15 +1104,15 @@
       <c r="M15" s="2">
         <v>1</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>0.7687621</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>0.78085579999999999</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="2">
@@ -1119,12 +1154,12 @@
       <c r="N16" s="2">
         <v>1</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <v>0.85629100000000002</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="2">
@@ -1171,17 +1206,17 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1204,13 +1239,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
